--- a/journal-evaluation/caso-journal-numerical-results.xlsx
+++ b/journal-evaluation/caso-journal-numerical-results.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrshen.CSDOMAIN.008\Desktop\caso-tpds\journal-evaluation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -50,30 +55,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Number of parity updates with different ratios</t>
+    <t>wdev_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wdev_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Number of parity updates with different ratios (k=4,m=2,tmdis=3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -82,21 +86,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -104,28 +122,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,12 +212,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -180,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,7 +297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,306 +506,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7">
+      <c r="A3" s="10">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1130</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1280</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2454</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1947</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2110</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1142</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2186</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1733</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1884</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5">
+        <v>882</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1908</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1520</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1648</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5">
+        <v>766</v>
+      </c>
+      <c r="C6" s="5">
+        <v>872</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1668</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1321</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1438</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5">
+        <v>638</v>
+      </c>
+      <c r="C7" s="5">
+        <v>724</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1376</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1098</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1191</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5">
+        <v>540</v>
+      </c>
+      <c r="C8" s="5">
+        <v>576</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1098</v>
+      </c>
+      <c r="E8" s="5">
+        <v>924</v>
+      </c>
+      <c r="F8" s="5">
+        <v>949</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10">
+        <v>70</v>
+      </c>
+      <c r="B9" s="5">
+        <v>406</v>
+      </c>
+      <c r="C9" s="5">
+        <v>432</v>
+      </c>
+      <c r="D9" s="5">
+        <v>830</v>
+      </c>
+      <c r="E9" s="5">
+        <v>696</v>
+      </c>
+      <c r="F9" s="5">
+        <v>712</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="E12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="B13" s="5">
+        <v>1590</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2026</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2438</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2569</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3083</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="B14" s="5">
+        <v>1338</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1792</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2146</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2173</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2722</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="B15" s="5">
+        <v>1170</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1562</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1876</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1893</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2375</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="B16" s="5">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1358</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1632</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1634</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2064</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
         <v>50</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B17" s="5">
         <v>842</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C17" s="5">
         <v>1124</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D17" s="5">
         <v>1354</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E17" s="5">
         <v>1355</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F17" s="5">
         <v>1708</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G17" s="5">
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5">
+        <v>682</v>
+      </c>
+      <c r="C18" s="5">
+        <v>908</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1098</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1103</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1381</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>70</v>
+      </c>
+      <c r="B19" s="5">
+        <v>512</v>
+      </c>
+      <c r="C19" s="5">
+        <v>678</v>
+      </c>
+      <c r="D19" s="5">
+        <v>828</v>
+      </c>
+      <c r="E19" s="5">
+        <v>827</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1033</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G23" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+    <row r="24" spans="1:7">
+      <c r="A24" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
         <v>50</v>
       </c>
-      <c r="B18" s="1">
-        <v>624</v>
-      </c>
-      <c r="C18" s="1">
-        <v>706</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1340</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1135</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1162</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>612754</v>
-      </c>
-      <c r="F23">
-        <v>660943</v>
-      </c>
-      <c r="G23">
-        <v>1050742</v>
-      </c>
-      <c r="I23">
-        <f>E23/F23</f>
-        <v>0.92709053579506862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>551030</v>
-      </c>
-      <c r="F24">
-        <v>626426</v>
-      </c>
-      <c r="G24">
-        <v>995995</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24:I28" si="0">E24/F24</f>
-        <v>0.87964101106914461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>488588</v>
-      </c>
-      <c r="F25">
-        <v>558564</v>
-      </c>
-      <c r="G25">
-        <v>888382</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>0.87472160755079098</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>30</v>
-      </c>
-      <c r="E26">
-        <v>447412</v>
-      </c>
-      <c r="F26">
-        <v>488937</v>
-      </c>
-      <c r="G26">
-        <v>777745</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>0.91507085779967567</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>40</v>
-      </c>
-      <c r="E27">
-        <v>379660</v>
-      </c>
-      <c r="F27">
-        <v>420637</v>
-      </c>
-      <c r="G27">
-        <v>669607</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>0.9025834627006184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>50</v>
-      </c>
-      <c r="B28">
-        <v>185186</v>
-      </c>
-      <c r="C28">
-        <v>213042</v>
-      </c>
-      <c r="D28">
-        <v>372522</v>
-      </c>
-      <c r="E28">
-        <v>311751</v>
-      </c>
-      <c r="F28">
-        <v>351096</v>
-      </c>
-      <c r="G28">
-        <v>558781</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>0.88793663271583845</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>70</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -731,7 +1001,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -741,7 +1011,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -754,7 +1024,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
